--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H2">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I2">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J2">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.709791333333333</v>
+        <v>3.248861</v>
       </c>
       <c r="N2">
-        <v>11.129374</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O2">
-        <v>0.4283284425582907</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P2">
-        <v>0.4283284425582907</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q2">
-        <v>1.006086753420222</v>
+        <v>0.4756256697243333</v>
       </c>
       <c r="R2">
-        <v>9.054780780782</v>
+        <v>4.280631027519</v>
       </c>
       <c r="S2">
-        <v>0.08753320880552283</v>
+        <v>0.04362189301797003</v>
       </c>
       <c r="T2">
-        <v>0.08753320880552283</v>
+        <v>0.04362189301797002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H3">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I3">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J3">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.599001333333333</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
         <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.4155367505499981</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P3">
-        <v>0.4155367505499981</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q3">
-        <v>0.9760407639302222</v>
+        <v>0.5268853975302223</v>
       </c>
       <c r="R3">
-        <v>8.784366875371999</v>
+        <v>4.741968577772001</v>
       </c>
       <c r="S3">
-        <v>0.08491909837930374</v>
+        <v>0.04832316652950008</v>
       </c>
       <c r="T3">
-        <v>0.08491909837930374</v>
+        <v>0.04832316652950008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H4">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I4">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J4">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.352297666666667</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N4">
-        <v>4.056893000000001</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q4">
-        <v>0.3667399718387778</v>
+        <v>0.003973867063222223</v>
       </c>
       <c r="R4">
-        <v>3.300659746549</v>
+        <v>0.035764803569</v>
       </c>
       <c r="S4">
-        <v>0.0319077121561971</v>
+        <v>0.0003644622545288286</v>
       </c>
       <c r="T4">
-        <v>0.0319077121561971</v>
+        <v>0.0003644622545288285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5110070000000001</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H5">
-        <v>1.533021</v>
+        <v>0.439193</v>
       </c>
       <c r="I5">
-        <v>0.3850674737985645</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J5">
-        <v>0.3850674737985645</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.709791333333333</v>
+        <v>1.711959</v>
       </c>
       <c r="N5">
-        <v>11.129374</v>
+        <v>5.135877</v>
       </c>
       <c r="O5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q5">
-        <v>1.895729339872667</v>
+        <v>0.250626803029</v>
       </c>
       <c r="R5">
-        <v>17.061564058854</v>
+        <v>2.255641227261</v>
       </c>
       <c r="S5">
-        <v>0.1649353513319946</v>
+        <v>0.02298617649359297</v>
       </c>
       <c r="T5">
-        <v>0.1649353513319945</v>
+        <v>0.02298617649359297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5110070000000001</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H6">
-        <v>1.533021</v>
+        <v>0.439193</v>
       </c>
       <c r="I6">
-        <v>0.3850674737985645</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J6">
-        <v>0.3850674737985645</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.599001333333333</v>
+        <v>0.03689</v>
       </c>
       <c r="N6">
-        <v>10.797004</v>
+        <v>0.11067</v>
       </c>
       <c r="O6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692127</v>
       </c>
       <c r="P6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692126</v>
       </c>
       <c r="Q6">
-        <v>1.839114874342667</v>
+        <v>0.005400609923333333</v>
       </c>
       <c r="R6">
-        <v>16.552033869084</v>
+        <v>0.04860548930999999</v>
       </c>
       <c r="S6">
-        <v>0.160009686804752</v>
+        <v>0.0004953156301340422</v>
       </c>
       <c r="T6">
-        <v>0.160009686804752</v>
+        <v>0.000495315630134042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.533021</v>
       </c>
       <c r="I7">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J7">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.352297666666667</v>
+        <v>3.248861</v>
       </c>
       <c r="N7">
-        <v>4.056893000000001</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O7">
-        <v>0.1561348068917112</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P7">
-        <v>0.1561348068917112</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q7">
-        <v>0.6910335737503336</v>
+        <v>1.660190713027</v>
       </c>
       <c r="R7">
-        <v>6.219302163753001</v>
+        <v>14.941716417243</v>
       </c>
       <c r="S7">
-        <v>0.06012243566181794</v>
+        <v>0.1522639888529677</v>
       </c>
       <c r="T7">
-        <v>0.06012243566181794</v>
+        <v>0.1522639888529677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.181472</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H8">
-        <v>0.544416</v>
+        <v>1.533021</v>
       </c>
       <c r="I8">
-        <v>0.1367475682430438</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J8">
-        <v>0.1367475682430438</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.709791333333333</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N8">
-        <v>11.129374</v>
+        <v>10.797004</v>
       </c>
       <c r="O8">
-        <v>0.4283284425582907</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P8">
-        <v>0.4283284425582907</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q8">
-        <v>0.6732232528426667</v>
+        <v>1.839114874342667</v>
       </c>
       <c r="R8">
-        <v>6.059009275584001</v>
+        <v>16.552033869084</v>
       </c>
       <c r="S8">
-        <v>0.05857287292917653</v>
+        <v>0.1686739749409047</v>
       </c>
       <c r="T8">
-        <v>0.05857287292917653</v>
+        <v>0.1686739749409047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.181472</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H9">
-        <v>0.544416</v>
+        <v>1.533021</v>
       </c>
       <c r="I9">
-        <v>0.1367475682430438</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J9">
-        <v>0.1367475682430438</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.599001333333333</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N9">
-        <v>10.797004</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O9">
-        <v>0.4155367505499981</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P9">
-        <v>0.4155367505499981</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q9">
-        <v>0.6531179699626667</v>
+        <v>0.01387094434366667</v>
       </c>
       <c r="R9">
-        <v>5.878061729664</v>
+        <v>0.124838499093</v>
       </c>
       <c r="S9">
-        <v>0.05682364015332854</v>
+        <v>0.001272170298479346</v>
       </c>
       <c r="T9">
-        <v>0.05682364015332854</v>
+        <v>0.001272170298479346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.181472</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H10">
-        <v>0.544416</v>
+        <v>1.533021</v>
       </c>
       <c r="I10">
-        <v>0.1367475682430438</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J10">
-        <v>0.1367475682430438</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.352297666666667</v>
+        <v>1.711959</v>
       </c>
       <c r="N10">
-        <v>4.056893000000001</v>
+        <v>5.135877</v>
       </c>
       <c r="O10">
-        <v>0.1561348068917112</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P10">
-        <v>0.1561348068917112</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q10">
-        <v>0.2454041621653334</v>
+        <v>0.8748230327130002</v>
       </c>
       <c r="R10">
-        <v>2.208637459488</v>
+        <v>7.873407294417</v>
       </c>
       <c r="S10">
-        <v>0.02135105516053875</v>
+        <v>0.08023418240815404</v>
       </c>
       <c r="T10">
-        <v>0.02135105516053875</v>
+        <v>0.08023418240815403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.276985</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H11">
-        <v>0.830955</v>
+        <v>1.533021</v>
       </c>
       <c r="I11">
-        <v>0.2087210434105509</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J11">
-        <v>0.2087210434105509</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.709791333333333</v>
+        <v>0.03689</v>
       </c>
       <c r="N11">
-        <v>11.129374</v>
+        <v>0.11067</v>
       </c>
       <c r="O11">
-        <v>0.4283284425582907</v>
+        <v>0.004277668994692127</v>
       </c>
       <c r="P11">
-        <v>0.4283284425582907</v>
+        <v>0.004277668994692126</v>
       </c>
       <c r="Q11">
-        <v>1.027556552463333</v>
+        <v>0.01885104823</v>
       </c>
       <c r="R11">
-        <v>9.24800897217</v>
+        <v>0.16965943407</v>
       </c>
       <c r="S11">
-        <v>0.08940115945318262</v>
+        <v>0.001728919319350991</v>
       </c>
       <c r="T11">
-        <v>0.08940115945318264</v>
+        <v>0.00172891931935099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.276985</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H12">
-        <v>0.830955</v>
+        <v>0.39863</v>
       </c>
       <c r="I12">
-        <v>0.2087210434105509</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J12">
-        <v>0.2087210434105509</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.599001333333333</v>
+        <v>3.248861</v>
       </c>
       <c r="N12">
-        <v>10.797004</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O12">
-        <v>0.4155367505499981</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P12">
-        <v>0.4155367505499981</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q12">
-        <v>0.9968693843133333</v>
+        <v>0.4316978201433333</v>
       </c>
       <c r="R12">
-        <v>8.971824458819999</v>
+        <v>3.885280381289999</v>
       </c>
       <c r="S12">
-        <v>0.08673126415022539</v>
+        <v>0.03959306094075587</v>
       </c>
       <c r="T12">
-        <v>0.0867312641502254</v>
+        <v>0.03959306094075585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.276985</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H13">
-        <v>0.830955</v>
+        <v>0.39863</v>
       </c>
       <c r="I13">
-        <v>0.2087210434105509</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J13">
-        <v>0.2087210434105509</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.352297666666667</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N13">
-        <v>4.056893000000001</v>
+        <v>10.797004</v>
       </c>
       <c r="O13">
-        <v>0.1561348068917112</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P13">
-        <v>0.1561348068917112</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q13">
-        <v>0.3745661692016667</v>
+        <v>0.4782233005022223</v>
       </c>
       <c r="R13">
-        <v>3.371095522815001</v>
+        <v>4.30400970452</v>
       </c>
       <c r="S13">
-        <v>0.03258861980714283</v>
+        <v>0.04386013409515775</v>
       </c>
       <c r="T13">
-        <v>0.03258861980714284</v>
+        <v>0.04386013409515774</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08639666666666668</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H14">
-        <v>0.25919</v>
+        <v>0.39863</v>
       </c>
       <c r="I14">
-        <v>0.06510389520681709</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J14">
-        <v>0.06510389520681709</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.709791333333333</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N14">
-        <v>11.129374</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O14">
-        <v>0.4283284425582907</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P14">
-        <v>0.4283284425582907</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q14">
-        <v>0.3205136052288889</v>
+        <v>0.003606848532222223</v>
       </c>
       <c r="R14">
-        <v>2.88462244706</v>
+        <v>0.03246163679</v>
       </c>
       <c r="S14">
-        <v>0.02788585003841413</v>
+        <v>0.0003308012389150714</v>
       </c>
       <c r="T14">
-        <v>0.02788585003841413</v>
+        <v>0.0003308012389150712</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08639666666666668</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H15">
-        <v>0.25919</v>
+        <v>0.39863</v>
       </c>
       <c r="I15">
-        <v>0.06510389520681709</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J15">
-        <v>0.06510389520681709</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,710 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.599001333333333</v>
+        <v>1.711959</v>
       </c>
       <c r="N15">
-        <v>10.797004</v>
+        <v>5.135877</v>
       </c>
       <c r="O15">
-        <v>0.4155367505499981</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P15">
-        <v>0.4155367505499981</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q15">
-        <v>0.3109417185288889</v>
+        <v>0.22747940539</v>
       </c>
       <c r="R15">
-        <v>2.79847546676</v>
+        <v>2.04731464851</v>
       </c>
       <c r="S15">
-        <v>0.02705306106238837</v>
+        <v>0.0208632185295325</v>
       </c>
       <c r="T15">
-        <v>0.02705306106238837</v>
+        <v>0.02086321852953249</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1328766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.39863</v>
+      </c>
+      <c r="I16">
+        <v>0.1050967840589721</v>
+      </c>
+      <c r="J16">
+        <v>0.1050967840589721</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03689</v>
+      </c>
+      <c r="N16">
+        <v>0.11067</v>
+      </c>
+      <c r="O16">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P16">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q16">
+        <v>0.004901820233333333</v>
+      </c>
+      <c r="R16">
+        <v>0.0441163821</v>
+      </c>
+      <c r="S16">
+        <v>0.0004495692546109188</v>
+      </c>
+      <c r="T16">
+        <v>0.0004495692546109185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.08639666666666668</v>
-      </c>
-      <c r="H16">
-        <v>0.25919</v>
-      </c>
-      <c r="I16">
-        <v>0.06510389520681709</v>
-      </c>
-      <c r="J16">
-        <v>0.06510389520681709</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.352297666666667</v>
-      </c>
-      <c r="N16">
-        <v>4.056893000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="P16">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="Q16">
-        <v>0.1168340107411111</v>
-      </c>
-      <c r="R16">
-        <v>1.05150609667</v>
-      </c>
-      <c r="S16">
-        <v>0.01016498410601459</v>
-      </c>
-      <c r="T16">
-        <v>0.01016498410601459</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.180116</v>
+      </c>
+      <c r="H17">
+        <v>0.5403480000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="J17">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.248861</v>
+      </c>
+      <c r="N17">
+        <v>9.746582999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3767295193213461</v>
+      </c>
+      <c r="P17">
+        <v>0.376729519321346</v>
+      </c>
+      <c r="Q17">
+        <v>0.5851718478760001</v>
+      </c>
+      <c r="R17">
+        <v>5.266546630884</v>
+      </c>
+      <c r="S17">
+        <v>0.05366889419565902</v>
+      </c>
+      <c r="T17">
+        <v>0.053668894195659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.180116</v>
+      </c>
+      <c r="H18">
+        <v>0.5403480000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="J18">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N18">
+        <v>10.797004</v>
+      </c>
+      <c r="O18">
+        <v>0.417330886838049</v>
+      </c>
+      <c r="P18">
+        <v>0.4173308868380489</v>
+      </c>
+      <c r="Q18">
+        <v>0.6482377241546669</v>
+      </c>
+      <c r="R18">
+        <v>5.834139517392001</v>
+      </c>
+      <c r="S18">
+        <v>0.0594529657528292</v>
+      </c>
+      <c r="T18">
+        <v>0.05945296575282919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.180116</v>
+      </c>
+      <c r="H19">
+        <v>0.5403480000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="J19">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02714433333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.08143300000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="P19">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="Q19">
+        <v>0.004889128742666668</v>
+      </c>
+      <c r="R19">
+        <v>0.04400215868400001</v>
+      </c>
+      <c r="S19">
+        <v>0.0004484052576205529</v>
+      </c>
+      <c r="T19">
+        <v>0.0004484052576205527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.180116</v>
+      </c>
+      <c r="H20">
+        <v>0.5403480000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="J20">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.711959</v>
+      </c>
+      <c r="N20">
+        <v>5.135877</v>
+      </c>
+      <c r="O20">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="P20">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="Q20">
+        <v>0.3083512072440001</v>
+      </c>
+      <c r="R20">
+        <v>2.775160865196</v>
+      </c>
+      <c r="S20">
+        <v>0.02828035623509477</v>
+      </c>
+      <c r="T20">
+        <v>0.02828035623509476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.180116</v>
+      </c>
+      <c r="H21">
+        <v>0.5403480000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="J21">
+        <v>0.1424600182442301</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.03689</v>
+      </c>
+      <c r="N21">
+        <v>0.11067</v>
+      </c>
+      <c r="O21">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P21">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q21">
+        <v>0.006644479240000001</v>
+      </c>
+      <c r="R21">
+        <v>0.05980031316</v>
+      </c>
+      <c r="S21">
+        <v>0.000609396803026618</v>
+      </c>
+      <c r="T21">
+        <v>0.0006093968030266178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2939293333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.881788</v>
+      </c>
+      <c r="I22">
+        <v>0.2324789479512151</v>
+      </c>
+      <c r="J22">
+        <v>0.2324789479512152</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.248861</v>
+      </c>
+      <c r="N22">
+        <v>9.746582999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.3767295193213461</v>
+      </c>
+      <c r="P22">
+        <v>0.376729519321346</v>
+      </c>
+      <c r="Q22">
+        <v>0.9549355478226665</v>
+      </c>
+      <c r="R22">
+        <v>8.594419930403999</v>
+      </c>
+      <c r="S22">
+        <v>0.08758168231399351</v>
+      </c>
+      <c r="T22">
+        <v>0.08758168231399351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2939293333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.881788</v>
+      </c>
+      <c r="I23">
+        <v>0.2324789479512151</v>
+      </c>
+      <c r="J23">
+        <v>0.2324789479512152</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N23">
+        <v>10.797004</v>
+      </c>
+      <c r="O23">
+        <v>0.417330886838049</v>
+      </c>
+      <c r="P23">
+        <v>0.4173308868380489</v>
+      </c>
+      <c r="Q23">
+        <v>1.057852062572445</v>
+      </c>
+      <c r="R23">
+        <v>9.520668563152002</v>
+      </c>
+      <c r="S23">
+        <v>0.09702064551965722</v>
+      </c>
+      <c r="T23">
+        <v>0.09702064551965724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2939293333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.881788</v>
+      </c>
+      <c r="I24">
+        <v>0.2324789479512151</v>
+      </c>
+      <c r="J24">
+        <v>0.2324789479512152</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02714433333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.08143300000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="P24">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="Q24">
+        <v>0.007978515800444445</v>
+      </c>
+      <c r="R24">
+        <v>0.071806642204</v>
+      </c>
+      <c r="S24">
+        <v>0.0007317476428277924</v>
+      </c>
+      <c r="T24">
+        <v>0.0007317476428277924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2939293333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.881788</v>
+      </c>
+      <c r="I25">
+        <v>0.2324789479512151</v>
+      </c>
+      <c r="J25">
+        <v>0.2324789479512152</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.711959</v>
+      </c>
+      <c r="N25">
+        <v>5.135877</v>
+      </c>
+      <c r="O25">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="P25">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="Q25">
+        <v>0.503194967564</v>
+      </c>
+      <c r="R25">
+        <v>4.528754708076</v>
+      </c>
+      <c r="S25">
+        <v>0.04615040448716705</v>
+      </c>
+      <c r="T25">
+        <v>0.04615040448716705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2939293333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.881788</v>
+      </c>
+      <c r="I26">
+        <v>0.2324789479512151</v>
+      </c>
+      <c r="J26">
+        <v>0.2324789479512152</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.03689</v>
+      </c>
+      <c r="N26">
+        <v>0.11067</v>
+      </c>
+      <c r="O26">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P26">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q26">
+        <v>0.01084305310666667</v>
+      </c>
+      <c r="R26">
+        <v>0.09758747795999999</v>
+      </c>
+      <c r="S26">
+        <v>0.0009944679875695578</v>
+      </c>
+      <c r="T26">
+        <v>0.0009944679875695576</v>
       </c>
     </row>
   </sheetData>
